--- a/06_look-back/20_開発体験シート.xlsx
+++ b/06_look-back/20_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E8747-8174-47FB-B25C-A35983BA1B97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3EB070-B4DF-47FA-959B-6598CDC2BCB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1739,7 +1739,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2308,11 +2308,11 @@
         <v>58</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I32" s="9"/>
     </row>
@@ -2329,11 +2329,11 @@
         <v>57</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I33" s="9"/>
     </row>
@@ -2394,11 +2394,11 @@
         <v>57</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2455,15 +2455,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2633,6 +2624,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
@@ -2643,14 +2643,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2666,4 +2658,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/06_look-back/20_開発体験シート.xlsx
+++ b/06_look-back/20_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3EB070-B4DF-47FA-959B-6598CDC2BCB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E2464C-30A4-443E-9C53-1C0AC104D215}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1736,10 +1736,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2415,11 +2415,11 @@
         <v>57</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -2455,6 +2455,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2624,15 +2633,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
@@ -2643,6 +2643,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2658,12 +2666,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>